--- a/Final Folder/Project Management/Monitoring & Controlling Phase/Testing & Evaluation/User (PHP)/CustomerTesting.xlsx
+++ b/Final Folder/Project Management/Monitoring & Controlling Phase/Testing & Evaluation/User (PHP)/CustomerTesting.xlsx
@@ -224,7 +224,7 @@
     <t>Review and rating is added to selected product.</t>
   </si>
   <si>
-    <t>Logged in customer can give ratings and write review.</t>
+    <t>Customers can give ratings and write review.</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D13"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
